--- a/status/excel/fromBox/TANA_excel.xlsx
+++ b/status/excel/fromBox/TANA_excel.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_496DA3AF8766760E62355476588D16BA9A2BAE6D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A21A4E25-D5C6-4F0D-B07F-5D0074DFC3A3}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Downloads/Status Sheets-selected (6)/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6D3A1-A645-0846-AECA-067BE875909E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +189,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +204,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,7 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,16 +553,16 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -602,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -619,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -636,7 +645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -653,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>12</v>
       </c>
@@ -670,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>13</v>
       </c>
@@ -687,7 +696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14</v>
       </c>
@@ -704,7 +713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>15</v>
       </c>
@@ -721,7 +730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>16</v>
       </c>
@@ -738,7 +747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>17</v>
       </c>
@@ -755,7 +764,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>18</v>
       </c>
@@ -772,7 +781,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>19</v>
       </c>
@@ -789,7 +798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20</v>
       </c>
@@ -806,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
@@ -823,7 +832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -840,7 +849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -857,7 +866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>24</v>
       </c>
@@ -874,7 +883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>25</v>
       </c>
@@ -891,7 +900,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>26</v>
       </c>
@@ -908,7 +917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27</v>
       </c>
@@ -925,7 +934,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>28</v>
       </c>
@@ -942,7 +951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>29</v>
       </c>
@@ -959,7 +968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>30</v>
       </c>
@@ -976,7 +985,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>31</v>
       </c>
